--- a/src/indices.xlsx
+++ b/src/indices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiara/EUTOPS Team Dropbox/Chiara Herzog/eca/tirolgesund/7-manuscripts/smk1/smk-repository/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472746B1-8A07-C64F-ADCE-FC566D7D4960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F3BBD4-03AD-C146-B1A4-CC46BA143EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14920" yWindow="500" windowWidth="20920" windowHeight="17440" activeTab="5" xr2:uid="{9B68C3DA-B724-D648-8729-B166D40B7E53}"/>
+    <workbookView xWindow="7600" yWindow="500" windowWidth="28240" windowHeight="17440" activeTab="2" xr2:uid="{9B68C3DA-B724-D648-8729-B166D40B7E53}"/>
   </bookViews>
   <sheets>
     <sheet name="vars_cerv" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="79">
   <si>
     <t>x</t>
   </si>
@@ -233,6 +233,51 @@
   </si>
   <si>
     <t>WID-SMK (immune hypoM)</t>
+  </si>
+  <si>
+    <t>mCigarette</t>
+  </si>
+  <si>
+    <t>smokingScore</t>
+  </si>
+  <si>
+    <t>Smoking Score (Elliott)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNAmGrimAgeV2                               </t>
+  </si>
+  <si>
+    <t>DNAmGrimAge (V2)</t>
+  </si>
+  <si>
+    <t>DNAmGDF15</t>
+  </si>
+  <si>
+    <t>DNAmCystatinC</t>
+  </si>
+  <si>
+    <t>DNAmB2M</t>
+  </si>
+  <si>
+    <t>DNAmTIMP1</t>
+  </si>
+  <si>
+    <t>DNAmADM</t>
+  </si>
+  <si>
+    <t>DNAmPAI1</t>
+  </si>
+  <si>
+    <t>DNAmLeptin</t>
+  </si>
+  <si>
+    <t>DNAmPACKYRS</t>
+  </si>
+  <si>
+    <t>DNAmlogCRP</t>
+  </si>
+  <si>
+    <t>DNAmlogA1C</t>
   </si>
 </sst>
 </file>
@@ -584,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE77753-208F-184B-8581-F271CD90F2EE}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B21"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -764,6 +809,22 @@
         <v>63</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -771,10 +832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB44D47-AE05-8546-AAB3-E53042F0AB5D}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B17"/>
+      <selection activeCell="A18" sqref="A18:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -918,6 +979,22 @@
         <v>63</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -925,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93734CE3-3306-7E4B-99CE-451EE0C59707}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1086,6 +1163,110 @@
       </c>
       <c r="B19" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1301,7 +1482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B626E4E-B6DF-924A-90C3-597BD24F1B74}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
